--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5676,6 +5676,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>9510649283000</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9510649283000</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9510649283000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>9510649283000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>9409262174800</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9409262174800</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9409262174800</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9409262174800</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5711,18 +5711,43 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>9409262174800</v>
+        <v>9402350923000</v>
       </c>
       <c r="D211" t="n">
-        <v>9409262174800</v>
+        <v>9402350923000</v>
       </c>
       <c r="E211" t="n">
-        <v>9409262174800</v>
+        <v>9402350923000</v>
       </c>
       <c r="F211" t="n">
-        <v>9409262174800</v>
+        <v>9402350923000</v>
       </c>
       <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>10834487311000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>10834487311000</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10834487311000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10834487311000</v>
+      </c>
+      <c r="G212" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9063578638600</v>
+        <v>9059276168200</v>
       </c>
       <c r="D209" t="n">
-        <v>9063578638600</v>
+        <v>9059276168200</v>
       </c>
       <c r="E209" t="n">
-        <v>9063578638600</v>
+        <v>9059276168200</v>
       </c>
       <c r="F209" t="n">
-        <v>9063578638600</v>
+        <v>9059276168200</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>9510649283000</v>
+        <v>9505999258000</v>
       </c>
       <c r="D210" t="n">
-        <v>9510649283000</v>
+        <v>9505999258000</v>
       </c>
       <c r="E210" t="n">
-        <v>9510649283000</v>
+        <v>9505999258000</v>
       </c>
       <c r="F210" t="n">
-        <v>9510649283000</v>
+        <v>9505999258000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5736,18 +5736,43 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>10834487311000</v>
+        <v>10834532376000</v>
       </c>
       <c r="D212" t="n">
-        <v>10834487311000</v>
+        <v>10834532376000</v>
       </c>
       <c r="E212" t="n">
-        <v>10834487311000</v>
+        <v>10834532376000</v>
       </c>
       <c r="F212" t="n">
-        <v>10834487311000</v>
+        <v>10834532376000</v>
       </c>
       <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>11478416920800</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11478416920800</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11478416920800</v>
+      </c>
+      <c r="F213" t="n">
+        <v>11478416920800</v>
+      </c>
+      <c r="G213" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>9402350923000</v>
+        <v>9409316708800</v>
       </c>
       <c r="D211" t="n">
-        <v>9402350923000</v>
+        <v>9409316708800</v>
       </c>
       <c r="E211" t="n">
-        <v>9402350923000</v>
+        <v>9409316708800</v>
       </c>
       <c r="F211" t="n">
-        <v>9402350923000</v>
+        <v>9409316708800</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5761,18 +5761,93 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>11478416920800</v>
+        <v>11478475285200</v>
       </c>
       <c r="D213" t="n">
-        <v>11478416920800</v>
+        <v>11478475285200</v>
       </c>
       <c r="E213" t="n">
-        <v>11478416920800</v>
+        <v>11478475285200</v>
       </c>
       <c r="F213" t="n">
-        <v>11478416920800</v>
+        <v>11478475285200</v>
       </c>
       <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>12025285811100</v>
+      </c>
+      <c r="D214" t="n">
+        <v>12025285811100</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12025285811100</v>
+      </c>
+      <c r="F214" t="n">
+        <v>12025285811100</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>12349311426800</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12349311426800</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12349311426800</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12349311426800</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ECONOMICS:TRM2</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>12763732048500</v>
+      </c>
+      <c r="D216" t="n">
+        <v>12763732048500</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12763732048500</v>
+      </c>
+      <c r="F216" t="n">
+        <v>12763732048500</v>
+      </c>
+      <c r="G216" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Turkey_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5360,18 +5360,41 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>12763732048500</v>
+        <v>12763789516500</v>
       </c>
       <c r="D216">
-        <v>12763732048500</v>
+        <v>12763789516500</v>
       </c>
       <c r="E216">
-        <v>12763732048500</v>
+        <v>12763789516500</v>
       </c>
       <c r="F216">
-        <v>12763732048500</v>
+        <v>12763789516500</v>
       </c>
       <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45231.45833333334</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>13050377190800</v>
+      </c>
+      <c r="D217">
+        <v>13050377190800</v>
+      </c>
+      <c r="E217">
+        <v>13050377190800</v>
+      </c>
+      <c r="F217">
+        <v>13050377190800</v>
+      </c>
+      <c r="G217">
         <v>0</v>
       </c>
     </row>
